--- a/araikenichiro.blog.fc2.com/番号ごと/00001/00022/003_コーディング規約（JSP）.xlsx
+++ b/araikenichiro.blog.fc2.com/番号ごと/00001/00022/003_コーディング規約（JSP）.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9351B10-03CB-4565-BB28-270D9221A1FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B86243-C2C8-441E-BACC-949E41702F31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1245" windowWidth="28470" windowHeight="8445" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="2385" windowWidth="28560" windowHeight="14520" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -394,13 +394,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -418,6 +418,198 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4038600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71652B2F-6292-49A8-8AA8-966F84702FAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5448300" y="4124325"/>
+          <a:ext cx="6505575" cy="3448050"/>
+          <a:chOff x="5543550" y="11906250"/>
+          <a:chExt cx="6505575" cy="3448050"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C8CDFF-730F-45DB-A26D-BBE450D700BE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5543550" y="11906250"/>
+            <a:ext cx="2533650" cy="1962150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E9B8D7-EA44-47EF-BC42-25C74363A368}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="5" idx="2"/>
+            <a:endCxn id="7" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6810375" y="13868400"/>
+            <a:ext cx="571500" cy="938213"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A91A7F-6468-4C78-933C-2E58CF51096C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7381875" y="14258925"/>
+            <a:ext cx="4667250" cy="1095375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,7 +881,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -788,10 +980,10 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -829,7 +1021,7 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -837,7 +1029,7 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -875,10 +1067,10 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -922,7 +1114,7 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -930,7 +1122,7 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -946,10 +1138,10 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -959,6 +1151,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -966,7 +1159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F87D0C-B4AC-4149-AF3B-D4D7765F364B}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -979,10 +1174,10 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -1020,7 +1215,7 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1028,7 +1223,7 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1044,10 +1239,10 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1076,10 +1271,10 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -1147,10 +1342,10 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/araikenichiro.blog.fc2.com/番号ごと/00001/00022/003_コーディング規約（JSP）.xlsx
+++ b/araikenichiro.blog.fc2.com/番号ごと/00001/00022/003_コーディング規約（JSP）.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B86243-C2C8-441E-BACC-949E41702F31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8371CB-82A7-4AF8-8B55-7CCCB30EC5E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="2385" windowWidth="28560" windowHeight="14520" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="3150" windowWidth="28365" windowHeight="14520" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
     <sheet name="001_インデント" sheetId="47" r:id="rId2"/>
     <sheet name="002_1タグ1行" sheetId="48" r:id="rId3"/>
     <sheet name="003_Javaの禁止" sheetId="49" r:id="rId4"/>
-    <sheet name="00_テンプレート" sheetId="46" r:id="rId5"/>
+    <sheet name="00_テンプレート" sheetId="46" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一覧!$A$1:$E$2</definedName>
@@ -422,18 +422,68 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B686F3-0098-40EE-8144-548ABDADCD41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="2619375"/>
+          <a:ext cx="18128605" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4038600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>4476749</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -448,10 +498,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5448300" y="4124325"/>
-          <a:ext cx="6505575" cy="3448050"/>
-          <a:chOff x="5543550" y="11906250"/>
-          <a:chExt cx="6505575" cy="3448050"/>
+          <a:off x="5886449" y="5686425"/>
+          <a:ext cx="6334125" cy="3743327"/>
+          <a:chOff x="5926229" y="11706556"/>
+          <a:chExt cx="5918205" cy="2615993"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -467,8 +517,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5543550" y="11906250"/>
-            <a:ext cx="2533650" cy="1962150"/>
+            <a:off x="5926229" y="11706556"/>
+            <a:ext cx="4565474" cy="1923717"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -516,13 +566,13 @@
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="5" idx="2"/>
-            <a:endCxn id="7" idx="1"/>
+            <a:endCxn id="7" idx="0"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6810375" y="13868400"/>
-            <a:ext cx="571500" cy="938213"/>
+            <a:off x="8208967" y="13630273"/>
+            <a:ext cx="1043756" cy="262548"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -562,8 +612,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7381875" y="14258925"/>
-            <a:ext cx="4667250" cy="1095375"/>
+            <a:off x="6661010" y="13892821"/>
+            <a:ext cx="5183424" cy="429728"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -598,11 +648,512 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>タグ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>行にする。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>テーブルの例の場合も、</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>tr</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>タグ、</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>th</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>タグ、</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>td</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>タグやその中のタグも</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>行ずつにする。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF5B52A-6963-40CF-926D-4D488C054B53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="2619375"/>
+          <a:ext cx="18128605" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4429125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219081</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7BF316-C302-444E-9666-43D3B5213C48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5838825" y="5524494"/>
+          <a:ext cx="7391399" cy="1362087"/>
+          <a:chOff x="4431104" y="14402417"/>
+          <a:chExt cx="6906055" cy="951883"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF423AD-CACD-4177-97DF-227D8542AB10}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4431104" y="14402417"/>
+            <a:ext cx="5499926" cy="126480"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A52AFA-2C19-46F6-AB80-9295D1CF5C3F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="5" idx="2"/>
+            <a:endCxn id="7" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7181067" y="14528902"/>
+            <a:ext cx="1564380" cy="395670"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3DCBF8-7A06-4B55-B2FD-AB0345867401}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6153735" y="14924572"/>
+            <a:ext cx="5183424" cy="429728"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Java</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>の処理を埋め込むみ「</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>&lt;%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>～</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>%&gt;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>」や「</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>&lt;%=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>～</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>%&gt;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>」をしようしない。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>タグを使用する。</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>core</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>や</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>fmt</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>、</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>fn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>などを使用する。</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -881,7 +1432,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1159,9 +1710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F87D0C-B4AC-4149-AF3B-D4D7765F364B}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1251,6 +1800,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1258,7 +1808,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89176D82-5A71-4F86-8C58-22E02CAB10F5}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
